--- a/mcmaster_excel/Stainless_Steel_Tamper-Resistant_One-Way_Round_Head_Screws.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Tamper-Resistant_One-Way_Round_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,96 +434,146 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.211"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.086"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>90288A104</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>$20.16</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>4-40</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,21 +608,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>90288A104</t>
+          <t>90288A106</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$20.16</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -597,7 +655,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -607,21 +665,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90288A106</t>
+          <t>90288A108</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20.83</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,21 +722,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90288A108</t>
+          <t>90288A110</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -695,7 +769,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -705,21 +779,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90288A110</t>
+          <t>90288A112</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -729,12 +811,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.211"</t>
+          <t>0.260"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>0.103"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -744,7 +826,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -754,38 +836,86 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>90288A112</t>
+          <t>90288A143</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.260"</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.103"</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>90288A144</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>6-32</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,21 +950,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90288A143</t>
+          <t>90288A146</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -869,21 +1007,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90288A144</t>
+          <t>90288A148</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21.34</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -918,21 +1064,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90288A146</t>
+          <t>90288A151</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22.62</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -962,26 +1116,34 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90288A148</t>
+          <t>90288A153</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>23.59</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1011,26 +1173,34 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90288A151</t>
+          <t>90288A157</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>26.17</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1040,12 +1210,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.260"</t>
+          <t>0.309"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.103"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1065,21 +1235,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90288A153</t>
+          <t>90288A190</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1089,12 +1267,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.260"</t>
+          <t>0.309"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.103"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1114,38 +1292,86 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>90288A157</t>
+          <t>90288A192</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17.02</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.309"</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.120"</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>90288A194</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>8-32</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1180,21 +1406,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90288A190</t>
+          <t>90288A197</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12.45</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1229,21 +1463,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90288A192</t>
+          <t>90288A199</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1278,21 +1520,29 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>90288A194</t>
+          <t>90288A203</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14.73</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1302,12 +1552,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.309"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.137"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1327,21 +1577,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90288A197</t>
+          <t>90288A242</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16.87</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1351,12 +1609,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.309"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.137"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1376,21 +1634,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>90288A199</t>
+          <t>90288A245</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>17.94</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1400,12 +1666,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.309"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.137"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1425,38 +1691,86 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90288A203</t>
+          <t>90288A247</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>22.60</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>1 1/4"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.359"</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.137"</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>90288A249</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1486,26 +1800,34 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90288A242</t>
+          <t>90288A251</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16.66</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1530,7 +1852,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1540,21 +1862,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90288A245</t>
+          <t>90288A270</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>19.07</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1579,7 +1909,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1589,21 +1919,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90288A247</t>
+          <t>90288A274</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>21.34</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1638,21 +1976,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>90288A249</t>
+          <t>90288A829</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>24.31</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1682,43 +2028,91 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90288A251</t>
+          <t>90288A830</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13.79</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.359"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.137"</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>90288A831</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1743,7 +2137,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1753,21 +2147,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90288A270</t>
+          <t>90288A833</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>14.39</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1792,31 +2194,39 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>90288A274</t>
+          <t>90288A835</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1846,26 +2256,34 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>90288A829</t>
+          <t>90288A836</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17.91</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1875,12 +2293,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.472"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1890,31 +2308,39 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>90288A830</t>
+          <t>90288A536</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19.25</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1924,12 +2350,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.472"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1939,31 +2365,39 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>90288A831</t>
+          <t>90288A537</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20.43</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1973,12 +2407,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.472"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1988,31 +2422,39 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>90288A833</t>
+          <t>90288A540</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2022,12 +2464,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.472"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2037,7 +2479,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2047,16 +2489,24 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>90288A835</t>
+          <t>90288A542</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13.19</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2071,12 +2521,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.472"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2086,7 +2536,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2096,21 +2546,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>90288A836</t>
+          <t>90288A546</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2135,22 +2593,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>90288A536</t>
+          <t>90288A550</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2158,272 +2616,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.472"</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.175"</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>90288A537</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0.472"</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.175"</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>90288A540</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>12.10</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0.472"</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.175"</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>90288A542</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>14.89</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0.472"</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.175"</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>90288A546</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>16.57</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.472"</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.175"</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>90288A550</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>11.23</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
